--- a/Documentation/Registro de pruebas.xlsx
+++ b/Documentation/Registro de pruebas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Desktop\NotifiK app Sprint 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JdRod\Documents\Notifik\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -549,18 +549,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,7 +577,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,46 +860,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="50" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="51"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -934,7 +934,7 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1066,7 +1066,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="16" t="s">
         <v>56</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1185,7 +1185,7 @@
       <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1213,7 +1213,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="11" t="s">
         <v>56</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1260,7 +1260,7 @@
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1274,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="11" t="s">
         <v>56</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="54" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1311,7 +1311,7 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1353,7 +1353,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1389,7 +1389,7 @@
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="1" t="s">
         <v>17</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="13" t="s">
         <v>56</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="54" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1442,7 +1442,7 @@
       <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="14" t="s">
         <v>56</v>
       </c>
@@ -1481,7 +1481,7 @@
       <c r="H33" s="31"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="54" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1495,7 +1495,7 @@
       <c r="H34" s="23"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,7 +1567,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
@@ -1591,7 +1591,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="18" t="s">
         <v>56</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
@@ -1624,7 +1624,7 @@
       <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="1" t="s">
         <v>30</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="1" t="s">
         <v>31</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="1" t="s">
         <v>33</v>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="1" t="s">
         <v>34</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="1" t="s">
         <v>35</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="1" t="s">
         <v>36</v>
       </c>
@@ -1736,7 +1736,7 @@
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="1" t="s">
         <v>37</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="1" t="s">
         <v>38</v>
       </c>
@@ -1764,7 +1764,7 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="1" t="s">
         <v>39</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="1" t="s">
         <v>40</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="11" t="s">
         <v>56</v>
       </c>
@@ -1812,16 +1812,16 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="48" t="s">
+      <c r="E62" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="49"/>
+      <c r="F62" s="52"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E63" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="F63" s="57" t="s">
+      <c r="F63" s="48" t="s">
         <v>64</v>
       </c>
     </row>
